--- a/AccuracyTesting.xlsx
+++ b/AccuracyTesting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Value</t>
   </si>
@@ -47,15 +47,6 @@
     <t>1m</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>Agilent (Mag)</t>
   </si>
   <si>
@@ -87,6 +78,24 @@
   </si>
   <si>
     <t>Mag Error Pct ET4510</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>C2 electrolytic</t>
+  </si>
+  <si>
+    <t>C1 electrolytic</t>
+  </si>
+  <si>
+    <t>C4 film</t>
   </si>
 </sst>
 </file>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,223 +433,319 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>1.03E-2</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-      <c r="C2">
-        <v>0.1002</v>
-      </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
       <c r="E2">
-        <v>9.987E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>-30</v>
       </c>
       <c r="I2">
         <f>(C2-E2)/C2*100</f>
-        <v>0.32934131736526645</v>
+        <v>-3.8834951456310614</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>1.006</v>
+        <v>0.1002</v>
       </c>
       <c r="D3">
-        <v>0.55000000000000004</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>1.0069999999999999</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="0">(C3-E3)/C3*100</f>
-        <v>-9.9403578528816094E-2</v>
+        <f>(C3-E3)/C3*100</f>
+        <v>1.0978043912175688</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>265</v>
+        <v>1.006</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E4">
-        <v>265.2</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="F4">
-        <v>4.4999999999999998E-2</v>
+        <v>0.6</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>-7.5471698113203256E-2</v>
+        <f t="shared" ref="I4:I15" si="0">(C4-E4)/C4*100</f>
+        <v>-9.9403578528816094E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5">
-        <v>99800</v>
+        <v>1.3779999999999999</v>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="E5">
-        <v>97400</v>
+        <v>1.38</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>2.4048096192384771</v>
+        <v>-0.14513788098693772</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.61229999999999996</v>
+        <v>265</v>
       </c>
       <c r="D6">
-        <v>40.96</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
-        <v>0.55300000000000005</v>
+        <v>264.89999999999998</v>
       </c>
       <c r="F6">
-        <v>31.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>9.6847950351134937</v>
+        <v>3.7735849056612356E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>18.149999999999999</v>
+        <v>9838</v>
       </c>
       <c r="D7">
-        <v>77.69</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>18.190000000000001</v>
+        <v>9833</v>
       </c>
       <c r="F7">
-        <v>77.7</v>
+        <v>1.6</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>-0.22038567493114439</v>
+        <f>(C7-E7)/C7*100</f>
+        <v>5.0823338076844887E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>65.599999999999994</v>
+        <v>99800</v>
       </c>
       <c r="D8">
-        <v>88.95</v>
+        <v>0.05</v>
       </c>
       <c r="E8">
-        <v>64.3</v>
+        <v>95800</v>
       </c>
       <c r="F8">
-        <v>89.3</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>1.9817073170731665</v>
+        <v>4.0080160320641278</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>16.96</v>
+        <v>0.61229999999999996</v>
       </c>
       <c r="D9">
-        <v>-76.3</v>
+        <v>40.96</v>
+      </c>
+      <c r="E9">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F9">
+        <v>41.5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-0.27764167891557001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1.57</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="D10">
-        <v>-35</v>
+        <v>77.69</v>
+      </c>
+      <c r="E10">
+        <v>18.2</v>
+      </c>
+      <c r="F10">
+        <v>78</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-0.27548209366391579</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0.26600000000000001</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="D11">
-        <v>-45</v>
+        <v>88.95</v>
+      </c>
+      <c r="E11">
+        <v>64.3</v>
+      </c>
+      <c r="F11">
+        <v>89.3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.9817073170731665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>16.96</v>
+      </c>
+      <c r="D12">
+        <v>-76.3</v>
+      </c>
+      <c r="E12">
+        <v>16.84</v>
+      </c>
+      <c r="F12">
+        <v>-77</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.70754716981132659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>1.54</v>
+      </c>
+      <c r="D13">
+        <v>-36</v>
+      </c>
+      <c r="E13">
+        <v>1.53</v>
+      </c>
+      <c r="F13">
+        <v>-36</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.6493506493506499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1650</v>
+      </c>
+      <c r="D15">
+        <v>-90</v>
+      </c>
+      <c r="E15">
+        <v>1635</v>
+      </c>
+      <c r="F15">
+        <v>-90.5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
       </c>
     </row>
   </sheetData>

--- a/AccuracyTesting.xlsx
+++ b/AccuracyTesting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Value</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>C4 film</t>
+  </si>
+  <si>
+    <t>All at 10kHz, Open/short done right before testing</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +434,7 @@
     <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -459,8 +462,11 @@
       <c r="I1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0.01</v>
       </c>
@@ -481,7 +487,7 @@
         <v>-3.8834951456310614</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -505,7 +511,7 @@
         <v>1.0978043912175688</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -529,7 +535,7 @@
         <v>-9.9403578528816094E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>1.3779999999999999</v>
       </c>
@@ -547,7 +553,7 @@
         <v>-0.14513788098693772</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -568,7 +574,7 @@
         <v>3.7735849056612356E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -589,7 +595,7 @@
         <v>5.0823338076844887E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -610,7 +616,7 @@
         <v>4.0080160320641278</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -631,7 +637,7 @@
         <v>-0.27764167891557001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -652,7 +658,7 @@
         <v>-0.27548209366391579</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -676,7 +682,7 @@
         <v>1.9817073170731665</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -700,7 +706,7 @@
         <v>0.70754716981132659</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -724,7 +730,7 @@
         <v>0.6493506493506499</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>

--- a/AccuracyTesting.xlsx
+++ b/AccuracyTesting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Value</t>
   </si>
@@ -47,12 +47,6 @@
     <t>1m</t>
   </si>
   <si>
-    <t>Agilent (Mag)</t>
-  </si>
-  <si>
-    <t>Agilent (Phase)</t>
-  </si>
-  <si>
     <t>My Ztester (Phase)</t>
   </si>
   <si>
@@ -99,6 +93,57 @@
   </si>
   <si>
     <t>All at 10kHz, Open/short done right before testing</t>
+  </si>
+  <si>
+    <t>AliExpress Component tester Mag</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Agilent 4263B  (Phase)</t>
+  </si>
+  <si>
+    <t>Agilent  4263B (Mag)</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>C3 film</t>
+  </si>
+  <si>
+    <t>C5 film</t>
+  </si>
+  <si>
+    <t>Mag Error Pct 4263B</t>
+  </si>
+  <si>
+    <t>Error Between ET4510 and 4263B</t>
+  </si>
+  <si>
+    <t>MLC500</t>
+  </si>
+  <si>
+    <t>1.0421mH</t>
+  </si>
+  <si>
+    <t>284.2u</t>
+  </si>
+  <si>
+    <t>9.868n</t>
+  </si>
+  <si>
+    <t>83.78n</t>
+  </si>
+  <si>
+    <t>23.1n</t>
+  </si>
+  <si>
+    <t>3.542n</t>
   </si>
 </sst>
 </file>
@@ -416,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,44 +474,61 @@
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.77734375" customWidth="1"/>
+    <col min="12" max="12" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
       </c>
       <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>0.01</v>
       </c>
@@ -481,15 +543,29 @@
       </c>
       <c r="F2">
         <v>-30</v>
+      </c>
+      <c r="G2">
+        <v>9.8300000000000002E-3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
       </c>
       <c r="I2">
         <f>(C2-E2)/C2*100</f>
         <v>-3.8834951456310614</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>(G2-E2)/G2*100</f>
+        <v>-8.8504577822990758</v>
+      </c>
+      <c r="K2">
+        <f>(G2-C2)/G2*100</f>
+        <v>-4.7812817904374354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -505,15 +581,32 @@
       </c>
       <c r="F3">
         <v>-0.1</v>
+      </c>
+      <c r="G3">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
       </c>
       <c r="I3">
         <f>(C3-E3)/C3*100</f>
         <v>1.0978043912175688</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f t="shared" ref="J3:J17" si="0">(G3-E3)/G3*100</f>
+        <v>0.50200803212851453</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K17" si="1">(G3-C3)/G3*100</f>
+        <v>-0.60240963855422014</v>
+      </c>
+      <c r="L3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -530,12 +623,32 @@
       <c r="F4">
         <v>0.6</v>
       </c>
+      <c r="G4">
+        <v>1.0075000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.9</v>
+      </c>
       <c r="I4">
-        <f t="shared" ref="I4:I15" si="0">(C4-E4)/C4*100</f>
+        <f t="shared" ref="I4:I15" si="2">(C4-E4)/C4*100</f>
         <v>-9.9403578528816094E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>4.9627791563292001E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.14888337468983193</v>
+      </c>
+      <c r="L4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
       <c r="C5">
         <v>1.3779999999999999</v>
       </c>
@@ -548,14 +661,28 @@
       <c r="F5">
         <v>8.3000000000000007</v>
       </c>
+      <c r="G5">
+        <v>1.385</v>
+      </c>
+      <c r="H5">
+        <v>8.2799999999999994</v>
+      </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.14513788098693772</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.3610108303249181</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.50541516245488216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>265</v>
@@ -569,14 +696,31 @@
       <c r="F6">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="G6">
+        <v>264.8</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.7735849056612356E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-3.7764350453159325E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-7.5528700906340118E-2</v>
+      </c>
+      <c r="L6">
+        <v>263.60000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>9838</v>
@@ -589,15 +733,29 @@
       </c>
       <c r="F7">
         <v>1.6</v>
+      </c>
+      <c r="G7">
+        <v>9838</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7">
         <f>(C7-E7)/C7*100</f>
         <v>5.0823338076844887E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>5.0823338076844887E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>99800</v>
@@ -611,12 +769,29 @@
       <c r="F8">
         <v>15</v>
       </c>
+      <c r="G8">
+        <v>99800</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0080160320641278</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>4.0080160320641278</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -632,12 +807,32 @@
       <c r="F9">
         <v>41.5</v>
       </c>
+      <c r="G9">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="H9">
+        <v>41.09</v>
+      </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.27764167891557001</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.51847051198962746</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.7939079714841244</v>
+      </c>
+      <c r="L9">
+        <v>0.66</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -653,12 +848,37 @@
       <c r="F10">
         <v>78</v>
       </c>
+      <c r="G10">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="H10">
+        <v>77.599999999999994</v>
+      </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.27548209366391579</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-0.16510731975782927</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.11007154650524559</v>
+      </c>
+      <c r="L10">
+        <f>SQRT((2*PI()*10000*0.00025)^2+4.2^2)</f>
+        <v>16.259769679403025</v>
+      </c>
+      <c r="M10">
+        <f>ATAN((2*PI()*10000*0.00025)/4.2)*180/PI()</f>
+        <v>75.030415763275656</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -677,17 +897,42 @@
       <c r="F11">
         <v>89.3</v>
       </c>
+      <c r="G11">
+        <v>65.8</v>
+      </c>
+      <c r="H11">
+        <v>88.86</v>
+      </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9817073170731665</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>2.2796352583586628</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.30395136778115933</v>
+      </c>
+      <c r="L11">
+        <f>SQRT((2*PI()*10000*0.00106)^2+0.7^2)</f>
+        <v>66.605442735752462</v>
+      </c>
+      <c r="M11">
+        <f>ATAN((2*PI()*10000*0.00106)/0.7)*180/PI()</f>
+        <v>89.397830231721301</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>16.96</v>
@@ -701,17 +946,31 @@
       <c r="F12">
         <v>-77</v>
       </c>
+      <c r="G12">
+        <v>16.62</v>
+      </c>
+      <c r="H12">
+        <v>-78.400000000000006</v>
+      </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.70754716981132659</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-1.3237063778579954</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-2.0457280385078209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1.54</v>
@@ -726,16 +985,46 @@
         <v>-36</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6493506493506499</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>4458</v>
+      </c>
+      <c r="H14">
+        <v>-89.11</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>1650</v>
@@ -749,9 +1038,161 @@
       <c r="F15">
         <v>-90.5</v>
       </c>
+      <c r="G15">
+        <v>1651</v>
+      </c>
+      <c r="H15">
+        <v>-89.98</v>
+      </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90909090909090906</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.96910963052695331</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>6.0569351907934582E-2</v>
+      </c>
+      <c r="L15">
+        <f>1/(2*PI()*10000*9.5*10^-9)</f>
+        <v>1675.3151904410036</v>
+      </c>
+      <c r="M15">
+        <v>-90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>709.5</v>
+      </c>
+      <c r="H16">
+        <v>-89.98</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>195.95</v>
+      </c>
+      <c r="H17">
+        <v>-89.45</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f>SIN(F2*PI()/180)*E2/(2*PI()*10000)</f>
+        <v>-8.5147894554163989E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f>SIN(F3*PI()/180)*E3/(2*PI()*10000)</f>
+        <v>-2.7527763802045507E-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f>SIN(F4*PI()/180)*E4/(2*PI()*10000)</f>
+        <v>1.6783026585273543E-7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f>SIN(F5*PI()/180)*E5/(2*PI()*10000)</f>
+        <v>3.170550407827549E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f>SIN(F6*PI()/180)*E6/(2*PI()*10000)</f>
+        <v>3.3112496595757647E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f>SIN(F7*PI()/180)*E7/(2*PI()*10000)</f>
+        <v>4.3696542461532954E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f>SIN(F8*PI()/180)*E8/(2*PI()*10000)</f>
+        <v>0.39462252517825985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f>SIN(F9*PI()/180)*E9/(2*PI()*10000)</f>
+        <v>6.4751983224109337E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f>SIN(F10*PI()/180)*E10/(2*PI()*10000)</f>
+        <v>2.8333218682907827E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f>SIN(F11*PI()/180)*E11/(2*PI()*10000)</f>
+        <v>1.0232899099076242E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <f>1/(SIN(F12*PI()/180)*E12*(2*PI()*10000))</f>
+        <v>-9.6996064056315724E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <f>1/(SIN(F13*PI()/180)*E13*(2*PI()*10000))</f>
+        <v>-1.7697422352201789E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E31" t="e">
+        <f>1/(SIN(F14*PI()/180)*E14*(2*PI()*10000))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f>1/(SIN(F15*PI()/180)*E15*(2*PI()*10000))</f>
+        <v>-9.7346179483309073E-9</v>
       </c>
     </row>
   </sheetData>
